--- a/ConfigFiles/Config_EnergyScope_BS.xlsx
+++ b/ConfigFiles/Config_EnergyScope_BS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\ConfigFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\Dispa-LINK\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2281E67D-ADC9-4FE0-B6B3-5DCFDA7E5641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2EF08-BD67-415D-9ADD-A4D85F8AD10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="-12405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="247">
   <si>
     <t>Default value</t>
   </si>
@@ -765,6 +765,18 @@
   </si>
   <si>
     <t>Outputs/EnergyScope/Database/HeatDemand/2015_ES_th.csv</t>
+  </si>
+  <si>
+    <t>CPLEX Accuracy</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>CPLEX Setting</t>
+  </si>
+  <si>
+    <t>Agressive</t>
   </si>
 </sst>
 </file>
@@ -925,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -997,15 +1009,6 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1048,17 +1051,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1074,9 +1077,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,8 +1527,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,16 +1545,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1567,17 +1567,17 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" s="34" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="1:8" s="31" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -1590,81 +1590,81 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
@@ -1675,35 +1675,35 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:8" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:2" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1719,23 +1719,23 @@
     <row r="30" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:2" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1750,7 +1750,7 @@
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="4" t="b">
@@ -1764,7 +1764,7 @@
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="b">
@@ -1778,7 +1778,7 @@
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="4"/>
@@ -1787,7 +1787,7 @@
       <c r="A38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="4"/>
@@ -1795,8 +1795,28 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="42">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="41" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,23 +1832,23 @@
     <row r="53" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:8" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+    <row r="56" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="17">
@@ -1842,11 +1862,11 @@
       <c r="A58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="17">
-        <v>42011</v>
+        <v>42369</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>71</v>
@@ -1856,7 +1876,7 @@
       <c r="A59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="4">
@@ -1870,7 +1890,7 @@
       <c r="A60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4">
@@ -1881,7 +1901,7 @@
       <c r="A61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="25" t="s">
         <v>193</v>
       </c>
       <c r="C61" s="4">
@@ -1892,7 +1912,7 @@
       <c r="A62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="25" t="s">
         <v>193</v>
       </c>
       <c r="C62" s="4">
@@ -1911,17 +1931,17 @@
     <row r="72" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
+    <row r="75" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
     </row>
     <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
@@ -1930,7 +1950,7 @@
       <c r="A77" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -1944,7 +1964,7 @@
       <c r="A78" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -1958,7 +1978,7 @@
       <c r="A79" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="4" t="b">
@@ -1989,23 +2009,23 @@
     <row r="95" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" s="1" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
+    <row r="98" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
     </row>
     <row r="99" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -2019,7 +2039,7 @@
       <c r="A100" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -2033,7 +2053,7 @@
       <c r="A101" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="4" t="b">
@@ -2041,10 +2061,10 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E102" s="28" t="s">
+      <c r="E102" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F102" s="5">
@@ -2055,10 +2075,10 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E103" s="28" t="s">
+      <c r="E103" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F103" s="5">
@@ -2091,23 +2111,23 @@
       <c r="A123" s="9"/>
       <c r="C123" s="14"/>
     </row>
-    <row r="124" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="35" t="s">
+    <row r="124" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B124" s="36"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="36"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
     </row>
     <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C125" s="19" t="s">
@@ -2122,14 +2142,14 @@
       <c r="A126" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="19"/>
       <c r="D126" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F126" s="5">
@@ -2141,7 +2161,7 @@
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="29" t="s">
+      <c r="B127" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C127" s="23"/>
@@ -2156,7 +2176,7 @@
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B128" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C128" s="19" t="s">
@@ -2173,7 +2193,7 @@
       <c r="A129" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="B129" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C129" s="19" t="s">
@@ -2187,14 +2207,14 @@
       <c r="A130" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="29" t="s">
+      <c r="B130" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C130" s="19"/>
       <c r="D130" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F130" s="5">
@@ -2208,7 +2228,7 @@
       <c r="A131" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C131" s="19"/>
@@ -2223,7 +2243,7 @@
       <c r="A132" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C132" s="19"/>
@@ -2238,7 +2258,7 @@
       <c r="A133" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B133" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C133" s="19"/>
@@ -2253,7 +2273,7 @@
       <c r="A134" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C134" s="19"/>
@@ -2265,7 +2285,7 @@
       <c r="A135" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C135" s="19" t="s">
@@ -2279,7 +2299,7 @@
       <c r="A136" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C136" s="19"/>
@@ -2292,7 +2312,7 @@
       <c r="A137" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C137" s="19"/>
@@ -2300,145 +2320,97 @@
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="25" t="s">
+    <row r="138" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C138" s="19"/>
     </row>
-    <row r="139" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="25" t="s">
+    <row r="139" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B139" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C139" s="19"/>
     </row>
-    <row r="140" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="25" t="s">
+    <row r="140" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C140" s="19"/>
     </row>
-    <row r="141" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="25" t="s">
+    <row r="141" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C141" s="19"/>
     </row>
-    <row r="142" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
+    <row r="142" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B142" s="29" t="s">
+      <c r="B142" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C142" s="19"/>
     </row>
-    <row r="143" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
+    <row r="143" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C143" s="19"/>
     </row>
-    <row r="144" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="25"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="45"/>
-    </row>
-    <row r="145" spans="1:3" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="25"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="45"/>
-    </row>
-    <row r="146" spans="1:3" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="25"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="45"/>
-    </row>
-    <row r="147" spans="1:3" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="25"/>
-      <c r="C147" s="27"/>
-    </row>
-    <row r="148" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="25"/>
-      <c r="C148" s="27"/>
-    </row>
-    <row r="149" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25"/>
-      <c r="C149" s="27"/>
-    </row>
-    <row r="150" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25"/>
-      <c r="C150" s="27"/>
-    </row>
-    <row r="151" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="25"/>
-      <c r="C151" s="27"/>
-    </row>
-    <row r="152" spans="1:3" s="26" customFormat="1" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="25"/>
-      <c r="C152" s="27"/>
-    </row>
-    <row r="153" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="25"/>
-      <c r="C153" s="27"/>
-    </row>
-    <row r="154" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="25"/>
-      <c r="C154" s="27"/>
-    </row>
-    <row r="155" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="25"/>
-      <c r="C155" s="27"/>
-    </row>
-    <row r="156" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="25"/>
-      <c r="C156" s="27"/>
-    </row>
-    <row r="157" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="25"/>
-      <c r="C157" s="27"/>
-    </row>
-    <row r="158" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="25"/>
-      <c r="C158" s="27"/>
-    </row>
-    <row r="159" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="25"/>
-      <c r="C159" s="27"/>
-    </row>
-    <row r="160" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="25"/>
-      <c r="C160" s="27"/>
-    </row>
-    <row r="161" spans="1:8" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="25" t="s">
+    <row r="144" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="40"/>
+    </row>
+    <row r="145" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="40"/>
+    </row>
+    <row r="146" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="40"/>
+    </row>
+    <row r="147" spans="3:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="3:3" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="3:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="3:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C161" s="19"/>
     </row>
-    <row r="162" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+    <row r="162" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B162" s="29" t="s">
+      <c r="B162" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C162" s="19"/>
@@ -2448,7 +2420,7 @@
         <v>196</v>
       </c>
       <c r="C163" s="1"/>
-      <c r="E163" s="28" t="s">
+      <c r="E163" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F163" s="5">
@@ -2462,7 +2434,7 @@
       <c r="A164" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E164" s="28" t="s">
+      <c r="E164" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F164" s="5">
@@ -2472,34 +2444,31 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="25"/>
-      <c r="C165" s="27"/>
-    </row>
-    <row r="166" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="35" t="s">
+    <row r="165" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="B166" s="36"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="36"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
     </row>
     <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B167" s="29" t="s">
+      <c r="B167" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C167" s="19"/>
       <c r="D167" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E167" s="28" t="s">
+      <c r="E167" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F167" s="5">
@@ -2510,14 +2479,14 @@
       <c r="A168" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B168" s="29" t="s">
+      <c r="B168" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C168" s="19"/>
       <c r="D168" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E168" s="28" t="s">
+      <c r="E168" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F168" s="5">
@@ -2528,14 +2497,14 @@
       <c r="A169" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C169" s="19"/>
       <c r="D169" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E169" s="28" t="s">
+      <c r="E169" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F169" s="5">
@@ -2545,102 +2514,84 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B170" s="29" t="s">
+      <c r="B170" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C170" s="19"/>
       <c r="D170" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E170" s="28" t="s">
+      <c r="E170" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F170" s="5">
         <v>0</v>
       </c>
-      <c r="H170" s="26" t="s">
+      <c r="H170" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B171" s="29" t="s">
+      <c r="B171" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C171" s="19"/>
       <c r="D171" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E171" s="28" t="s">
+      <c r="E171" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F171" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="172" spans="1:8" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B172" s="29" t="s">
+      <c r="B172" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E172" s="28" t="s">
+      <c r="E172" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="25"/>
-      <c r="C174" s="27"/>
-    </row>
-    <row r="175" spans="1:8" s="26" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="25"/>
-      <c r="C175" s="27"/>
-    </row>
-    <row r="176" spans="1:8" s="26" customFormat="1" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="25"/>
-      <c r="C176" s="27"/>
-    </row>
-    <row r="177" spans="1:8" s="26" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="25"/>
-      <c r="C177" s="27"/>
-    </row>
-    <row r="178" spans="1:8" s="26" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="25"/>
-      <c r="C178" s="27"/>
-    </row>
-    <row r="179" spans="1:8" s="26" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="25"/>
-      <c r="C179" s="27"/>
-    </row>
-    <row r="180" spans="1:8" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="25"/>
-      <c r="C180" s="27"/>
-    </row>
+    <row r="173" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:8" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:8" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:8" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:8" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B181" s="29" t="s">
+      <c r="B181" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C181" s="19"/>
       <c r="D181" s="18"/>
-      <c r="E181" s="28" t="s">
+      <c r="E181" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F181" s="5">
@@ -2651,14 +2602,14 @@
       <c r="A182" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B182" s="29" t="s">
+      <c r="B182" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C182" s="19"/>
       <c r="D182" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E182" s="28" t="s">
+      <c r="E182" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F182" s="5">
@@ -2669,14 +2620,14 @@
       <c r="A183" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B183" s="29" t="s">
+      <c r="B183" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E183" s="28" t="s">
+      <c r="E183" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F183" s="5">
@@ -2690,17 +2641,17 @@
       <c r="A184" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B184" s="29" t="s">
+      <c r="B184" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C184" s="19"/>
       <c r="D184" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E184" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F184" s="51">
+      <c r="E184" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" s="41">
         <v>60.150579999999998</v>
       </c>
     </row>
@@ -2708,14 +2659,14 @@
       <c r="A185" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B185" s="29" t="s">
+      <c r="B185" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C185" s="19"/>
       <c r="D185" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E185" s="28" t="s">
+      <c r="E185" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F185" s="5">
@@ -2726,14 +2677,14 @@
       <c r="A186" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B186" s="29" t="s">
+      <c r="B186" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C186" s="19"/>
       <c r="D186" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E186" s="28" t="s">
+      <c r="E186" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F186" s="5">
@@ -2744,32 +2695,32 @@
       <c r="A187" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B187" s="29" t="s">
+      <c r="B187" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C187" s="19"/>
       <c r="D187" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E187" s="28" t="s">
+      <c r="E187" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F187" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="25" t="s">
+    <row r="188" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B188" s="29" t="s">
+      <c r="B188" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C188" s="19"/>
       <c r="D188" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E188" s="28" t="s">
+      <c r="E188" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F188" s="5">
@@ -2778,64 +2729,25 @@
     </row>
     <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="25"/>
-      <c r="C192" s="27"/>
-    </row>
-    <row r="193" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="25"/>
-      <c r="C193" s="27"/>
-    </row>
-    <row r="194" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="25"/>
-      <c r="C194" s="27"/>
-    </row>
-    <row r="195" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="25"/>
-      <c r="C195" s="27"/>
-    </row>
-    <row r="196" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="25"/>
-      <c r="C196" s="27"/>
-    </row>
-    <row r="197" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="25"/>
-      <c r="C197" s="27"/>
-    </row>
-    <row r="198" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="25"/>
-      <c r="C198" s="27"/>
-    </row>
-    <row r="199" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="25"/>
-      <c r="C199" s="27"/>
-    </row>
-    <row r="200" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="25"/>
-      <c r="C200" s="27"/>
-    </row>
-    <row r="201" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="25"/>
-      <c r="C201" s="27"/>
-    </row>
-    <row r="202" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="25"/>
-      <c r="C202" s="27"/>
-    </row>
-    <row r="203" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="25"/>
-      <c r="C203" s="27"/>
-    </row>
-    <row r="204" spans="1:8" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="25"/>
-      <c r="C204" s="27"/>
-    </row>
+    <row r="192" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="E205" s="28" t="s">
+      <c r="E205" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F205" s="24">
@@ -2850,11 +2762,11 @@
         <v>142</v>
       </c>
       <c r="C206" s="1"/>
-      <c r="E206" s="28" t="s">
+      <c r="E206" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F206" s="5">
-        <v>401</v>
+        <v>1502</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>146</v>
@@ -2865,7 +2777,7 @@
         <v>145</v>
       </c>
       <c r="C207" s="1"/>
-      <c r="E207" s="28" t="s">
+      <c r="E207" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F207" s="5">
@@ -2875,93 +2787,48 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="25"/>
-      <c r="C209" s="27"/>
-    </row>
-    <row r="210" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="25"/>
-      <c r="C210" s="27"/>
-    </row>
-    <row r="211" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="25"/>
-      <c r="C211" s="27"/>
-    </row>
-    <row r="212" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="25"/>
-      <c r="C212" s="27"/>
-    </row>
-    <row r="213" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="25"/>
-      <c r="C213" s="27"/>
-    </row>
-    <row r="214" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="25"/>
-      <c r="C214" s="27"/>
-    </row>
-    <row r="215" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="25"/>
-      <c r="C215" s="27"/>
-    </row>
-    <row r="216" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="25"/>
-      <c r="C216" s="27"/>
-    </row>
-    <row r="217" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="25"/>
-      <c r="C217" s="27"/>
-    </row>
-    <row r="218" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="25"/>
-      <c r="C218" s="27"/>
-    </row>
-    <row r="219" spans="1:3" s="26" customFormat="1" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="25"/>
-      <c r="C219" s="27"/>
-    </row>
-    <row r="220" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="25"/>
-      <c r="C220" s="27"/>
-    </row>
-    <row r="221" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="25"/>
-      <c r="C221" s="27"/>
-    </row>
-    <row r="222" spans="1:3" s="26" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="25"/>
-      <c r="C222" s="27"/>
-    </row>
-    <row r="223" spans="1:3" s="26" customFormat="1" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="25"/>
-      <c r="C223" s="27"/>
-    </row>
+    <row r="209" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:3" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:3" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:3" s="10" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
       <c r="C224" s="14"/>
     </row>
-    <row r="225" spans="1:8" s="41" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="39" t="s">
+    <row r="225" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B225" s="42" t="s">
+      <c r="B225" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C225" s="39" t="s">
+      <c r="C225" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D225" s="43" t="s">
+      <c r="D225" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="E225" s="42" t="s">
+      <c r="E225" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F225" s="39" t="s">
+      <c r="F225" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G225" s="39" t="s">
+      <c r="G225" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="H225" s="40"/>
+      <c r="H225" s="37"/>
     </row>
     <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
@@ -2987,7 +2854,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="47" t="s">
+      <c r="A227" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -3010,7 +2877,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="47"/>
+      <c r="A228" s="44"/>
       <c r="B228" s="6" t="s">
         <v>21</v>
       </c>
@@ -3031,7 +2898,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="47"/>
+      <c r="A229" s="44"/>
       <c r="B229" s="6" t="s">
         <v>149</v>
       </c>
@@ -3052,7 +2919,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="47"/>
+      <c r="A230" s="44"/>
       <c r="B230" s="6" t="s">
         <v>131</v>
       </c>
@@ -3073,7 +2940,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="47"/>
+      <c r="A231" s="44"/>
       <c r="B231" s="6" t="s">
         <v>5</v>
       </c>
@@ -3094,7 +2961,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="47"/>
+      <c r="A232" s="44"/>
       <c r="B232" s="6" t="s">
         <v>152</v>
       </c>
@@ -3115,7 +2982,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="47"/>
+      <c r="A233" s="44"/>
       <c r="B233" s="6" t="s">
         <v>30</v>
       </c>
@@ -3136,7 +3003,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="47"/>
+      <c r="A234" s="44"/>
       <c r="B234" s="6" t="s">
         <v>16</v>
       </c>
@@ -3157,7 +3024,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="47"/>
+      <c r="A235" s="44"/>
       <c r="B235" s="6" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3045,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="47"/>
+      <c r="A236" s="44"/>
       <c r="B236" s="6" t="s">
         <v>8</v>
       </c>
@@ -3199,7 +3066,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="47"/>
+      <c r="A237" s="44"/>
       <c r="B237" s="6" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3087,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="47"/>
+      <c r="A238" s="44"/>
       <c r="B238" s="6" t="s">
         <v>9</v>
       </c>
@@ -3241,7 +3108,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="47"/>
+      <c r="A239" s="44"/>
       <c r="B239" s="6" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3129,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="47"/>
+      <c r="A240" s="44"/>
       <c r="B240" s="6" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3150,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="47"/>
+      <c r="A241" s="44"/>
       <c r="B241" s="6" t="s">
         <v>27</v>
       </c>
@@ -3364,7 +3231,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="50" t="s">
+      <c r="A245" s="47" t="s">
         <v>170</v>
       </c>
       <c r="B245" s="6" t="s">
@@ -3387,7 +3254,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="50"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="6" t="s">
         <v>158</v>
       </c>
@@ -3430,124 +3297,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="25"/>
-      <c r="C248" s="27"/>
-    </row>
-    <row r="249" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="25"/>
-      <c r="C249" s="27"/>
-    </row>
-    <row r="250" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="25"/>
-      <c r="C250" s="27"/>
-    </row>
-    <row r="251" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="25"/>
-      <c r="C251" s="27"/>
-    </row>
-    <row r="252" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="25"/>
-      <c r="C252" s="27"/>
-    </row>
-    <row r="253" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="25"/>
-      <c r="C253" s="27"/>
-    </row>
-    <row r="254" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="25"/>
-      <c r="C254" s="27"/>
-    </row>
-    <row r="255" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="25"/>
-      <c r="C255" s="27"/>
-    </row>
-    <row r="256" spans="1:8" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="25"/>
-      <c r="C256" s="27"/>
-    </row>
-    <row r="257" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="25"/>
-      <c r="C257" s="27"/>
-    </row>
-    <row r="258" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="25"/>
-      <c r="C258" s="27"/>
-    </row>
-    <row r="259" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="25"/>
-      <c r="C259" s="27"/>
-    </row>
-    <row r="260" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="25"/>
-      <c r="C260" s="27"/>
-    </row>
-    <row r="261" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="25"/>
-      <c r="C261" s="27"/>
-    </row>
-    <row r="262" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="25"/>
-      <c r="C262" s="27"/>
-    </row>
-    <row r="263" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="25"/>
-      <c r="C263" s="27"/>
-    </row>
-    <row r="264" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="25"/>
-      <c r="C264" s="27"/>
-    </row>
-    <row r="265" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="25"/>
-      <c r="C265" s="27"/>
-    </row>
-    <row r="266" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="25"/>
-      <c r="C266" s="27"/>
-    </row>
-    <row r="267" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="25"/>
-      <c r="C267" s="27"/>
-    </row>
-    <row r="268" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="25"/>
-      <c r="C268" s="27"/>
-    </row>
-    <row r="269" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="25"/>
-      <c r="C269" s="27"/>
-    </row>
-    <row r="270" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="25"/>
-      <c r="C270" s="27"/>
-    </row>
-    <row r="271" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="25"/>
-      <c r="C271" s="27"/>
-    </row>
-    <row r="272" spans="1:3" s="26" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="25"/>
-      <c r="C272" s="27"/>
-    </row>
+    <row r="248" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="273" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="35" t="s">
+    <row r="274" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B274" s="36"/>
-      <c r="C274" s="37"/>
-      <c r="D274" s="36"/>
-      <c r="E274" s="36"/>
-      <c r="F274" s="36"/>
-      <c r="G274" s="36"/>
-      <c r="H274" s="36"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="33"/>
+      <c r="E274" s="33"/>
+      <c r="F274" s="33"/>
+      <c r="G274" s="33"/>
+      <c r="H274" s="33"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B275" s="28" t="s">
+      <c r="B275" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C275" s="5">
@@ -3558,7 +3350,7 @@
       <c r="A276" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B276" s="28" t="s">
+      <c r="B276" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C276" s="5">
@@ -3572,7 +3364,7 @@
       <c r="A277" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B277" s="28" t="s">
+      <c r="B277" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C277" s="5">
@@ -3586,7 +3378,7 @@
       <c r="A278" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B278" s="28" t="s">
+      <c r="B278" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C278" s="5">
@@ -3613,29 +3405,29 @@
     <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="35" t="s">
+      <c r="A298" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B298" s="36"/>
-      <c r="C298" s="37"/>
-      <c r="D298" s="36"/>
-      <c r="E298" s="36"/>
-      <c r="F298" s="36"/>
-      <c r="G298" s="36"/>
-      <c r="H298" s="36"/>
+      <c r="B298" s="33"/>
+      <c r="C298" s="34"/>
+      <c r="D298" s="33"/>
+      <c r="E298" s="33"/>
+      <c r="F298" s="33"/>
+      <c r="G298" s="33"/>
+      <c r="H298" s="33"/>
     </row>
     <row r="299" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C299" s="31" t="s">
+      <c r="C299" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D299" s="41"/>
-      <c r="E299" s="41"/>
-      <c r="F299" s="41"/>
-      <c r="G299" s="41"/>
-      <c r="H299" s="41"/>
+      <c r="D299" s="38"/>
+      <c r="E299" s="38"/>
+      <c r="F299" s="38"/>
+      <c r="G299" s="38"/>
+      <c r="H299" s="38"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
@@ -3653,35 +3445,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="26" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
+    <row r="302" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C302" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
-      <c r="H302" s="1"/>
-    </row>
-    <row r="303" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C303" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
-      <c r="H303" s="1"/>
-    </row>
-    <row r="304" spans="1:8" s="41" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="1"/>
       <c r="C304" s="13"/>
@@ -3695,10 +3475,10 @@
       <c r="A305" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C305" s="31" t="s">
+      <c r="C305" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F305" s="31" t="s">
+      <c r="F305" s="28" t="s">
         <v>4</v>
       </c>
     </row>

--- a/ConfigFiles/Config_EnergyScope_BS.xlsx
+++ b/ConfigFiles/Config_EnergyScope_BS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\Dispa-LINK\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2EF08-BD67-415D-9ADD-A4D85F8AD10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00465ADC-18DB-4A64-8479-CA724BEAEEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="246">
   <si>
     <t>Default value</t>
   </si>
@@ -425,9 +425,6 @@
     <t>CPLEX path</t>
   </si>
   <si>
-    <t>Heat Demand</t>
-  </si>
-  <si>
     <t>Integer clustering</t>
   </si>
   <si>
@@ -764,9 +761,6 @@
     <t>Outputs/EnergyScope/Database/AvailabilityFactors/##/AF_2015_ES.csv</t>
   </si>
   <si>
-    <t>Outputs/EnergyScope/Database/HeatDemand/2015_ES_th.csv</t>
-  </si>
-  <si>
     <t>CPLEX Accuracy</t>
   </si>
   <si>
@@ -777,6 +771,9 @@
   </si>
   <si>
     <t>Agressive</t>
+  </si>
+  <si>
+    <t>Scaled outflows</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1524,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1543,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -1594,7 +1591,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -1677,7 +1674,7 @@
     </row>
     <row r="15" spans="1:8" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
@@ -1695,13 +1692,13 @@
     </row>
     <row r="17" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="27"/>
     </row>
     <row r="18" spans="1:2" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="25"/>
     </row>
@@ -1721,7 +1718,7 @@
     <row r="32" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="34"/>
@@ -1739,7 +1736,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1797,10 +1794,10 @@
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="42">
         <v>5.0000000000000001E-4</v>
@@ -1808,13 +1805,13 @@
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1831,7 @@
     <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="34"/>
@@ -1899,10 +1896,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -1910,10 +1907,10 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>193</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -1933,7 +1930,7 @@
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="34"/>
@@ -1954,7 +1951,7 @@
         <v>59</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>63</v>
@@ -2011,7 +2008,7 @@
     <row r="97" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B98" s="33"/>
       <c r="C98" s="34"/>
@@ -2023,35 +2020,35 @@
     </row>
     <row r="99" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B100" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B101" s="27" t="s">
         <v>4</v>
@@ -2062,7 +2059,7 @@
     </row>
     <row r="102" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E102" s="25" t="s">
         <v>0</v>
@@ -2071,12 +2068,12 @@
         <v>0.5</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E103" s="25" t="s">
         <v>0</v>
@@ -2085,7 +2082,7 @@
         <v>0.5</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="124" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B124" s="33"/>
       <c r="C124" s="34"/>
@@ -2131,7 +2128,7 @@
         <v>35</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>87</v>
@@ -2140,7 +2137,7 @@
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B126" s="26" t="s">
         <v>35</v>
@@ -2180,13 +2177,13 @@
         <v>35</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>87</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2194,7 @@
         <v>35</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>87</v>
@@ -2283,21 +2280,19 @@
     </row>
     <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="B135" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="19" t="s">
-        <v>242</v>
-      </c>
+      <c r="C135" s="19"/>
       <c r="D135" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B136" s="26" t="s">
         <v>35</v>
@@ -2310,7 +2305,7 @@
     </row>
     <row r="137" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B137" s="26" t="s">
         <v>35</v>
@@ -2322,7 +2317,7 @@
     </row>
     <row r="138" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B138" s="26" t="s">
         <v>35</v>
@@ -2331,7 +2326,7 @@
     </row>
     <row r="139" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B139" s="26" t="s">
         <v>35</v>
@@ -2340,7 +2335,7 @@
     </row>
     <row r="140" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B140" s="26" t="s">
         <v>35</v>
@@ -2349,7 +2344,7 @@
     </row>
     <row r="141" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B141" s="26" t="s">
         <v>35</v>
@@ -2358,7 +2353,7 @@
     </row>
     <row r="142" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B142" s="26" t="s">
         <v>35</v>
@@ -2367,7 +2362,7 @@
     </row>
     <row r="143" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B143" s="26" t="s">
         <v>35</v>
@@ -2399,7 +2394,7 @@
     <row r="160" spans="3:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B161" s="26" t="s">
         <v>35</v>
@@ -2408,7 +2403,7 @@
     </row>
     <row r="162" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B162" s="26" t="s">
         <v>35</v>
@@ -2417,7 +2412,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C163" s="1"/>
       <c r="E163" s="25" t="s">
@@ -2427,12 +2422,12 @@
         <v>0</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E164" s="25" t="s">
         <v>0</v>
@@ -2441,13 +2436,13 @@
         <v>0.5</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="166" spans="1:8" s="35" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B166" s="33"/>
       <c r="C166" s="34"/>
@@ -2477,7 +2472,7 @@
     </row>
     <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B168" s="26" t="s">
         <v>35</v>
@@ -2490,12 +2485,12 @@
         <v>0</v>
       </c>
       <c r="F168" s="5">
-        <v>1001</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B169" s="26" t="s">
         <v>35</v>
@@ -2508,15 +2503,15 @@
         <v>0</v>
       </c>
       <c r="F169" s="5">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B170" s="26" t="s">
         <v>35</v>
@@ -2532,12 +2527,12 @@
         <v>0</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B171" s="26" t="s">
         <v>35</v>
@@ -2550,12 +2545,12 @@
         <v>0</v>
       </c>
       <c r="F171" s="5">
-        <v>1000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B172" s="26" t="s">
         <v>35</v>
@@ -2711,7 +2706,7 @@
     </row>
     <row r="188" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188" s="26" t="s">
         <v>35</v>
@@ -2744,7 +2739,7 @@
     <row r="204" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C205" s="1"/>
       <c r="E205" s="25" t="s">
@@ -2754,12 +2749,12 @@
         <v>100000</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C206" s="1"/>
       <c r="E206" s="25" t="s">
@@ -2769,22 +2764,22 @@
         <v>1502</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C207" s="1"/>
       <c r="E207" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F207" s="5">
-        <v>1500</v>
+        <v>120000</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2808,25 +2803,25 @@
     </row>
     <row r="225" spans="1:8" s="38" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B225" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C225" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D225" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E225" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F225" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G225" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H225" s="37"/>
     </row>
@@ -2835,7 +2830,7 @@
         <v>50</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C226" s="4" t="b">
         <v>0</v>
@@ -2844,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F226" s="4" t="b">
         <v>0</v>
@@ -2858,7 +2853,7 @@
         <v>51</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C227" s="4" t="b">
         <v>0</v>
@@ -2867,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F227" s="4" t="b">
         <v>0</v>
@@ -2900,7 +2895,7 @@
     <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44"/>
       <c r="B229" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C229" s="4" t="b">
         <v>0</v>
@@ -2921,7 +2916,7 @@
     <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="44"/>
       <c r="B230" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C230" s="4" t="b">
         <v>0</v>
@@ -2930,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F230" s="4" t="b">
         <v>0</v>
@@ -2951,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F231" s="4" t="b">
         <v>0</v>
@@ -2963,16 +2958,16 @@
     <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="44"/>
       <c r="B232" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C232" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C232" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D232" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="F232" s="4" t="b">
         <v>0</v>
@@ -3014,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F234" s="4" t="b">
         <v>0</v>
@@ -3119,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F239" s="4" t="b">
         <v>0</v>
@@ -3140,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F240" s="4" t="b">
         <v>0</v>
@@ -3221,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F244" s="4" t="b">
         <v>0</v>
@@ -3232,7 +3227,7 @@
     </row>
     <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>10</v>
@@ -3244,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F245" s="4" t="b">
         <v>0</v>
@@ -3256,7 +3251,7 @@
     <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="47"/>
       <c r="B246" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C246" s="4" t="b">
         <v>0</v>
@@ -3274,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3288,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F247" s="4" t="b">
         <v>0</v>
@@ -3406,7 +3401,7 @@
     <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B298" s="33"/>
       <c r="C298" s="34"/>
@@ -3418,7 +3413,7 @@
     </row>
     <row r="299" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C299" s="28" t="s">
         <v>4</v>
@@ -3473,7 +3468,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C305" s="28" t="s">
         <v>4</v>
@@ -3490,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F306" s="21" t="b">
         <v>1</v>
@@ -3504,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F307" s="21" t="b">
         <v>1</v>
@@ -3518,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F308" s="21" t="b">
         <v>1</v>
@@ -3532,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="E309" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F309" s="21" t="b">
         <v>1</v>
@@ -3546,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F310" s="21" t="b">
         <v>1</v>
@@ -3560,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F311" s="21" t="b">
         <v>1</v>
@@ -3574,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F312" s="21" t="b">
         <v>1</v>
@@ -3588,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F313" s="21" t="b">
         <v>0</v>
@@ -3602,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F314" s="21" t="b">
         <v>0</v>
@@ -3616,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="E315" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F315" s="21" t="b">
         <v>0</v>
@@ -3630,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F316" s="21" t="b">
         <v>0</v>
@@ -3644,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F317" s="21" t="b">
         <v>0</v>
@@ -3658,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F318" s="21" t="b">
         <v>0</v>
@@ -3672,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F319" s="21" t="b">
         <v>0</v>
@@ -3686,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F320" s="21" t="b">
         <v>0</v>
@@ -3694,13 +3689,13 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B321" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C321" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E321" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="C321" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E321" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="F321" s="21" t="b">
         <v>0</v>
@@ -3708,7 +3703,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E322" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F322" s="21" t="b">
         <v>0</v>
@@ -3716,7 +3711,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,7 +3785,7 @@
       <formula2>73051</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C132" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F171:F172 F168 F181:F188" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F171:F172 F181:F188 F168" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C275" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C276" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C277" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
@@ -3924,10 +3919,10 @@
         <v>79</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -3944,10 +3939,10 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,16 +3953,16 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,21 +3970,21 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -3997,7 +3992,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigFiles/Config_EnergyScope_BS.xlsx
+++ b/ConfigFiles/Config_EnergyScope_BS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\Dispa-LINK\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00465ADC-18DB-4A64-8479-CA724BEAEEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB308A30-A6BA-4D9E-AE34-91F80BF9502B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="5">
-        <v>110000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>174</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="5">
-        <v>110000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F205" s="24">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>189</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="F206" s="5">
-        <v>1502</v>
+        <v>3002</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>145</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="F207" s="5">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>146</v>
